--- a/keywords_10_coocurrencias.xlsx
+++ b/keywords_10_coocurrencias.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gih\semillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gih\semillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE037BB6-8F55-4014-9630-D56925C74CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="525" windowWidth="27330" windowHeight="14445" xr2:uid="{4E4F2DA5-BC92-4CB9-9428-4528CAC12B22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
   </bookViews>
   <sheets>
     <sheet name="keywords con 10 coocurrencias" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'keywords con 10 coocurrencias'!$A$1:$D$109</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,8 +38,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B6362319-AC6E-4C23-A793-11ECCB323A8B}" keepAlive="1" name="Consulta - keywords con 10 coocurrencias" description="Conexión a la consulta 'keywords con 10 coocurrencias' en el libro." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Consulta - keywords con 10 coocurrencias" description="Conexión a la consulta 'keywords con 10 coocurrencias' en el libro." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;keywords con 10 coocurrencias&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [keywords con 10 coocurrencias]"/>
   </connection>
 </connections>
@@ -445,8 +444,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,7 +460,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +471,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -498,12 +503,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +532,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{507CBA6E-DAD4-4F92-949F-184A1AAD23B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DatosExternos_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6" unboundColumnsRight="1">
     <queryTableFields count="5">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -540,17 +546,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD111D6A-C607-4917-8F82-97D16CAD1B8F}" name="keywords_con_10_coocurrencias" displayName="keywords_con_10_coocurrencias" ref="A1:E109" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E109" xr:uid="{CD111D6A-C607-4917-8F82-97D16CAD1B8F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="keywords_con_10_coocurrencias" displayName="keywords_con_10_coocurrencias" ref="A1:E109" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E109"/>
+  <sortState ref="A2:E109">
     <sortCondition ref="C1:C109"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B843B2BB-D588-4976-961D-C9C33E011037}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{89A160A5-73E7-4EA3-B772-4C7330689070}" uniqueName="2" name="keyword" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{1189FB80-D014-4340-8245-3DF1D98F1845}" uniqueName="3" name="remplazar" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7D6000D1-B862-43C4-BCE5-6A24CEE714CE}" uniqueName="4" name="cambios " queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{59B6B76D-8801-4220-90B3-2B78917A65AF}" uniqueName="5" name="razon del cambio " queryTableFieldId="5"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="keyword" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="3" uniqueName="3" name="remplazar" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="cambios " queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="razon del cambio " queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -872,22 +878,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6527CC81-4CBA-42C4-977B-5B04FD97C72D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +910,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>69</v>
       </c>
@@ -915,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>140</v>
       </c>
@@ -926,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>200</v>
       </c>
@@ -937,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>316</v>
       </c>
@@ -948,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>453</v>
       </c>
@@ -959,7 +965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>541</v>
       </c>
@@ -970,18 +976,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>595</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>823</v>
       </c>
@@ -992,7 +998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>834</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>952</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>454</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>1009</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>1032</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>1193</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>1284</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>1306</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1315</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1355</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1434</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1478</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>398</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1643</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1715</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1854</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>1891</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>1903</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>1904</v>
       </c>
@@ -1215,7 +1221,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>1775</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1924</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>6062</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4442</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5743</v>
       </c>
@@ -1298,7 +1304,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>2041</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>4550</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>2067</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>5346</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>2173</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2213</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>2264</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>2395</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>2476</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>2515</v>
       </c>
@@ -1417,18 +1423,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>2518</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>2748</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>2963</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>3142</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>3237</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>3238</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>3345</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>3571</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>1834</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>3862</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>3609</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>3904</v>
       </c>
@@ -1558,10 +1564,10 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>6050</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>3968</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>3981</v>
       </c>
@@ -1591,10 +1597,10 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>4740</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>4051</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>4067</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>4870</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>4202</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>4203</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>1341</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>3659</v>
       </c>
@@ -1696,8 +1702,11 @@
       <c r="C67" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>3671</v>
       </c>
@@ -1714,7 +1723,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>4322</v>
       </c>
@@ -1728,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>105</v>
       </c>
@@ -1738,8 +1747,11 @@
       <c r="C70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>4437</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>4504</v>
       </c>
@@ -1761,7 +1773,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>4531</v>
       </c>
@@ -1772,7 +1784,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>4690</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>4766</v>
       </c>
@@ -1793,8 +1805,11 @@
       <c r="C75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>5175</v>
       </c>
@@ -1808,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>4780</v>
       </c>
@@ -1819,7 +1834,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>2308</v>
       </c>
@@ -1833,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>4795</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>4816</v>
       </c>
@@ -1855,7 +1870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>4819</v>
       </c>
@@ -1866,7 +1881,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>4884</v>
       </c>
@@ -1877,7 +1892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>4886</v>
       </c>
@@ -1888,7 +1903,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>4408</v>
       </c>
@@ -1905,7 +1920,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>4896</v>
       </c>
@@ -1916,7 +1931,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>4901</v>
       </c>
@@ -1927,7 +1942,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>4871</v>
       </c>
@@ -1944,7 +1959,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>4904</v>
       </c>
@@ -1955,7 +1970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>4928</v>
       </c>
@@ -1966,7 +1981,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>4980</v>
       </c>
@@ -1983,7 +1998,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>2092</v>
       </c>
@@ -1994,7 +2009,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>5038</v>
       </c>
@@ -2005,7 +2020,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>5063</v>
       </c>
@@ -2016,7 +2031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>5230</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>5262</v>
       </c>
@@ -2038,7 +2053,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>1319</v>
       </c>
@@ -2052,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>5264</v>
       </c>
@@ -2063,7 +2078,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>5272</v>
       </c>
@@ -2074,7 +2089,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>2069</v>
       </c>
@@ -2088,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>5449</v>
       </c>
@@ -2099,7 +2114,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>5484</v>
       </c>
@@ -2110,7 +2125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>3097</v>
       </c>
@@ -2127,7 +2142,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>5492</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>5499</v>
       </c>
@@ -2158,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>5505</v>
       </c>
@@ -2169,7 +2184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>3024</v>
       </c>
@@ -2186,7 +2201,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>5611</v>
       </c>
@@ -2197,7 +2212,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>5726</v>
       </c>
@@ -2208,7 +2223,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>5790</v>
       </c>
